--- a/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-25 18:06:07</t>
+    <t>2025-05-27 08:58:42</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -690,31 +690,31 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="F2">
-        <v>45.65560821484992</v>
+        <v>45.38643533123029</v>
       </c>
       <c r="G2">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="H2">
-        <v>67.73301737756714</v>
+        <v>67.78391167192429</v>
       </c>
       <c r="I2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J2">
-        <v>31.6350710900474</v>
+        <v>31.70347003154574</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>0.631911532385466</v>
+        <v>0.5126182965299685</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -735,94 +735,94 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="U2">
-        <v>27.17219589257504</v>
+        <v>27.20820189274448</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="X2">
-        <v>18.48341232227488</v>
+        <v>18.1782334384858</v>
       </c>
       <c r="Y2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z2">
-        <v>4.462875197472354</v>
+        <v>4.495268138801261</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="AC2">
-        <v>49.88151658767773</v>
+        <v>50.11829652996845</v>
       </c>
       <c r="AD2">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="AE2">
-        <v>2497</v>
+        <v>2424</v>
       </c>
       <c r="AF2">
-        <v>98.61769352290679</v>
+        <v>95.58359621451105</v>
       </c>
       <c r="AG2">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="AH2">
-        <v>1.382306477093209</v>
+        <v>4.416403785488953</v>
       </c>
       <c r="AI2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AJ2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL2">
-        <v>19.6319018404908</v>
+        <v>19.29555895865237</v>
       </c>
       <c r="AM2">
-        <v>26.38036809815951</v>
+        <v>26.64624808575804</v>
       </c>
       <c r="AN2">
-        <v>53.98773006134969</v>
+        <v>54.05819295558959</v>
       </c>
       <c r="AO2">
-        <v>442003.85</v>
+        <v>451674.65</v>
       </c>
       <c r="AP2">
-        <v>82940.14999999999</v>
+        <v>85459.66</v>
       </c>
       <c r="AQ2">
-        <v>27744.18</v>
+        <v>28369.44</v>
       </c>
       <c r="AR2">
-        <v>79.97345808987627</v>
+        <v>79.87120332977456</v>
       </c>
       <c r="AS2">
-        <v>15.00668062052639</v>
+        <v>15.11212967199599</v>
       </c>
       <c r="AT2">
-        <v>5.019861289597327</v>
+        <v>5.016666998229454</v>
       </c>
       <c r="AU2">
-        <v>85.57574598316756</v>
+        <v>83.37217771303715</v>
       </c>
       <c r="AV2">
-        <v>134.5441666076362</v>
+        <v>130.1105769230769</v>
       </c>
       <c r="AW2">
-        <v>226.5888382687927</v>
+        <v>218.3128491620112</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-27 08:58:42</t>
+    <t>2025-05-28 10:00:08</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>56.37795275590551</v>
       </c>
       <c r="E2">
-        <v>1151</v>
+        <v>342</v>
       </c>
       <c r="F2">
-        <v>45.38643533123029</v>
+        <v>13.46456692913386</v>
       </c>
       <c r="G2">
         <v>1719</v>
       </c>
       <c r="H2">
-        <v>67.78391167192429</v>
+        <v>67.6771653543307</v>
       </c>
       <c r="I2">
         <v>804</v>
       </c>
       <c r="J2">
-        <v>31.70347003154574</v>
+        <v>31.65354330708661</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>339953.95</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M2">
-        <v>0.5126182965299685</v>
+        <v>0.6692913385826772</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>4822.37</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3.267716535433071</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>7066.179999999999</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>21.25984251968504</v>
       </c>
       <c r="T2">
         <v>690</v>
       </c>
       <c r="U2">
-        <v>27.20820189274448</v>
+        <v>27.16535433070866</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>331276.02</v>
       </c>
       <c r="W2">
         <v>461</v>
       </c>
       <c r="X2">
-        <v>18.1782334384858</v>
+        <v>18.1496062992126</v>
       </c>
       <c r="Y2">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="Z2">
-        <v>4.495268138801261</v>
+        <v>1.220472440944882</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1611.75</v>
       </c>
       <c r="AB2">
-        <v>1271</v>
+        <v>735</v>
       </c>
       <c r="AC2">
-        <v>50.11829652996845</v>
+        <v>28.93700787401575</v>
       </c>
       <c r="AD2">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="AE2">
-        <v>2424</v>
+        <v>2505</v>
       </c>
       <c r="AF2">
-        <v>95.58359621451105</v>
+        <v>98.62204724409449</v>
       </c>
       <c r="AG2">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="AH2">
-        <v>4.416403785488953</v>
+        <v>1.377952755905511</v>
       </c>
       <c r="AI2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL2">
-        <v>19.29555895865237</v>
+        <v>19.08396946564886</v>
       </c>
       <c r="AM2">
-        <v>26.64624808575804</v>
+        <v>26.7175572519084</v>
       </c>
       <c r="AN2">
-        <v>54.05819295558959</v>
+        <v>54.19847328244275</v>
       </c>
       <c r="AO2">
-        <v>451674.65</v>
+        <v>466031.05</v>
       </c>
       <c r="AP2">
-        <v>85459.66</v>
+        <v>87392.91</v>
       </c>
       <c r="AQ2">
-        <v>28369.44</v>
+        <v>29173.04</v>
       </c>
       <c r="AR2">
-        <v>79.87120332977456</v>
+        <v>79.99200991422887</v>
       </c>
       <c r="AS2">
-        <v>15.11212967199599</v>
+        <v>15.00057672799551</v>
       </c>
       <c r="AT2">
-        <v>5.016666998229454</v>
+        <v>5.007413357775614</v>
       </c>
       <c r="AU2">
-        <v>83.37217771303715</v>
+        <v>79.76211175215364</v>
       </c>
       <c r="AV2">
-        <v>130.1105769230769</v>
+        <v>127.9756838905775</v>
       </c>
       <c r="AW2">
-        <v>218.3128491620112</v>
+        <v>200.8143839238498</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-28 10:00:08</t>
+    <t>2025-05-29 14:02:48</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>2540</v>
+        <v>2548</v>
       </c>
       <c r="C2">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="D2">
-        <v>56.37795275590551</v>
+        <v>56.35792778649922</v>
       </c>
       <c r="E2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F2">
-        <v>13.46456692913386</v>
+        <v>13.34379905808477</v>
       </c>
       <c r="G2">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="H2">
-        <v>67.6771653543307</v>
+        <v>67.26844583987442</v>
       </c>
       <c r="I2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J2">
-        <v>31.65354330708661</v>
+        <v>31.5149136577708</v>
       </c>
       <c r="K2">
-        <v>339953.95</v>
+        <v>332782.77</v>
       </c>
       <c r="L2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M2">
-        <v>0.6692913385826772</v>
+        <v>1.216640502354788</v>
       </c>
       <c r="N2">
-        <v>4822.37</v>
+        <v>6678.059999999999</v>
       </c>
       <c r="O2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P2">
-        <v>3.267716535433071</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="Q2">
-        <v>7066.179999999999</v>
+        <v>7248.18</v>
       </c>
       <c r="R2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="S2">
-        <v>21.25984251968504</v>
+        <v>21.31083202511774</v>
       </c>
       <c r="T2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="U2">
-        <v>27.16535433070866</v>
+        <v>27.00156985871271</v>
       </c>
       <c r="V2">
-        <v>331276.02</v>
+        <v>323928.84</v>
       </c>
       <c r="W2">
         <v>461</v>
       </c>
       <c r="X2">
-        <v>18.1496062992126</v>
+        <v>18.09262166405023</v>
       </c>
       <c r="Y2">
         <v>31</v>
       </c>
       <c r="Z2">
-        <v>1.220472440944882</v>
+        <v>1.216640502354788</v>
       </c>
       <c r="AA2">
-        <v>1611.75</v>
+        <v>1605.75</v>
       </c>
       <c r="AB2">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="AC2">
-        <v>28.93700787401575</v>
+        <v>29.08163265306122</v>
       </c>
       <c r="AD2">
-        <v>2540</v>
+        <v>2548</v>
       </c>
       <c r="AE2">
-        <v>2505</v>
+        <v>2513</v>
       </c>
       <c r="AF2">
-        <v>98.62204724409449</v>
+        <v>98.62637362637363</v>
       </c>
       <c r="AG2">
         <v>35</v>
       </c>
       <c r="AH2">
-        <v>1.377952755905511</v>
+        <v>1.373626373626365</v>
       </c>
       <c r="AI2">
         <v>125</v>
       </c>
       <c r="AJ2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AL2">
-        <v>19.08396946564886</v>
+        <v>19.1131498470948</v>
       </c>
       <c r="AM2">
-        <v>26.7175572519084</v>
+        <v>26.91131498470948</v>
       </c>
       <c r="AN2">
-        <v>54.19847328244275</v>
+        <v>53.97553516819572</v>
       </c>
       <c r="AO2">
-        <v>466031.05</v>
+        <v>458770.9199999999</v>
       </c>
       <c r="AP2">
-        <v>87392.91</v>
+        <v>86736.61</v>
       </c>
       <c r="AQ2">
-        <v>29173.04</v>
+        <v>28896.19</v>
       </c>
       <c r="AR2">
-        <v>79.99200991422887</v>
+        <v>79.86907187857348</v>
       </c>
       <c r="AS2">
-        <v>15.00057672799551</v>
+        <v>15.1002869549661</v>
       </c>
       <c r="AT2">
-        <v>5.007413357775614</v>
+        <v>5.030641166460413</v>
       </c>
       <c r="AU2">
-        <v>79.76211175215364</v>
+        <v>79.5042347167621</v>
       </c>
       <c r="AV2">
-        <v>127.9756838905775</v>
+        <v>125.1855737704918</v>
       </c>
       <c r="AW2">
-        <v>200.8143839238498</v>
+        <v>185.0394712685882</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-29 14:02:48</t>
+    <t>2025-05-30 10:33:41</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="C2">
         <v>1436</v>
       </c>
       <c r="D2">
-        <v>56.35792778649922</v>
+        <v>56.31372549019608</v>
       </c>
       <c r="E2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F2">
-        <v>13.34379905808477</v>
+        <v>13.6078431372549</v>
       </c>
       <c r="G2">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="H2">
-        <v>67.26844583987442</v>
+        <v>67.37254901960785</v>
       </c>
       <c r="I2">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="J2">
-        <v>31.5149136577708</v>
+        <v>31.80392156862745</v>
       </c>
       <c r="K2">
-        <v>332782.77</v>
+        <v>352934.79</v>
       </c>
       <c r="L2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M2">
-        <v>1.216640502354788</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="N2">
-        <v>6678.059999999999</v>
+        <v>1110.97</v>
       </c>
       <c r="O2">
         <v>84</v>
       </c>
       <c r="P2">
-        <v>3.296703296703297</v>
+        <v>3.294117647058824</v>
       </c>
       <c r="Q2">
-        <v>7248.18</v>
+        <v>7248.179999999999</v>
       </c>
       <c r="R2">
         <v>543</v>
       </c>
       <c r="S2">
-        <v>21.31083202511774</v>
+        <v>21.29411764705883</v>
       </c>
       <c r="T2">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="U2">
-        <v>27.00156985871271</v>
+        <v>27.29411764705883</v>
       </c>
       <c r="V2">
-        <v>323928.84</v>
+        <v>342393.66</v>
       </c>
       <c r="W2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="X2">
-        <v>18.09262166405023</v>
+        <v>18.03921568627451</v>
       </c>
       <c r="Y2">
         <v>31</v>
       </c>
       <c r="Z2">
-        <v>1.216640502354788</v>
+        <v>1.215686274509804</v>
       </c>
       <c r="AA2">
-        <v>1605.75</v>
+        <v>3292.95</v>
       </c>
       <c r="AB2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="AC2">
-        <v>29.08163265306122</v>
+        <v>28.86274509803922</v>
       </c>
       <c r="AD2">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="AE2">
-        <v>2513</v>
+        <v>2323</v>
       </c>
       <c r="AF2">
-        <v>98.62637362637363</v>
+        <v>91.09803921568627</v>
       </c>
       <c r="AG2">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="AH2">
-        <v>1.373626373626365</v>
+        <v>8.901960784313729</v>
       </c>
       <c r="AI2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AL2">
-        <v>19.1131498470948</v>
+        <v>19.19642857142857</v>
       </c>
       <c r="AM2">
-        <v>26.91131498470948</v>
+        <v>26.63690476190476</v>
       </c>
       <c r="AN2">
-        <v>53.97553516819572</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AO2">
-        <v>458770.9199999999</v>
+        <v>487005.88</v>
       </c>
       <c r="AP2">
-        <v>86736.61</v>
+        <v>92306.54000000001</v>
       </c>
       <c r="AQ2">
-        <v>28896.19</v>
+        <v>30577.61</v>
       </c>
       <c r="AR2">
-        <v>79.86907187857348</v>
+        <v>79.85142501837585</v>
       </c>
       <c r="AS2">
-        <v>15.1002869549661</v>
+        <v>15.13494818074006</v>
       </c>
       <c r="AT2">
-        <v>5.030641166460413</v>
+        <v>5.013626800884087</v>
       </c>
       <c r="AU2">
-        <v>79.5042347167621</v>
+        <v>77.1710575509085</v>
       </c>
       <c r="AV2">
-        <v>125.1855737704918</v>
+        <v>116.6083640985293</v>
       </c>
       <c r="AW2">
-        <v>185.0394712685882</v>
+        <v>156.8895800933126</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-30 10:33:41</t>
+    <t>2025-06-02 11:40:50</t>
   </si>
 </sst>
 </file>
@@ -690,25 +690,25 @@
         <v>56.31372549019608</v>
       </c>
       <c r="E2">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="F2">
-        <v>13.6078431372549</v>
+        <v>8.313725490196077</v>
       </c>
       <c r="G2">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H2">
-        <v>67.37254901960785</v>
+        <v>67.29411764705883</v>
       </c>
       <c r="I2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J2">
-        <v>31.80392156862745</v>
+        <v>31.88235294117647</v>
       </c>
       <c r="K2">
-        <v>352934.79</v>
+        <v>349184.6900000001</v>
       </c>
       <c r="L2">
         <v>21</v>
@@ -717,112 +717,112 @@
         <v>0.823529411764706</v>
       </c>
       <c r="N2">
-        <v>1110.97</v>
+        <v>931.71</v>
       </c>
       <c r="O2">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="P2">
-        <v>3.294117647058824</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="Q2">
-        <v>7248.179999999999</v>
+        <v>13954.56</v>
       </c>
       <c r="R2">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="S2">
-        <v>21.29411764705883</v>
+        <v>23.25490196078431</v>
       </c>
       <c r="T2">
-        <v>696</v>
+        <v>614</v>
       </c>
       <c r="U2">
-        <v>27.29411764705883</v>
+        <v>24.07843137254902</v>
       </c>
       <c r="V2">
-        <v>342393.66</v>
+        <v>325460.06</v>
       </c>
       <c r="W2">
-        <v>460</v>
+        <v>305</v>
       </c>
       <c r="X2">
-        <v>18.03921568627451</v>
+        <v>11.96078431372549</v>
       </c>
       <c r="Y2">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="Z2">
-        <v>1.215686274509804</v>
+        <v>2.470588235294117</v>
       </c>
       <c r="AA2">
-        <v>3292.95</v>
+        <v>9770.07</v>
       </c>
       <c r="AB2">
-        <v>736</v>
+        <v>839</v>
       </c>
       <c r="AC2">
-        <v>28.86274509803922</v>
+        <v>32.90196078431373</v>
       </c>
       <c r="AD2">
         <v>2550</v>
       </c>
       <c r="AE2">
-        <v>2323</v>
+        <v>2513</v>
       </c>
       <c r="AF2">
-        <v>91.09803921568627</v>
+        <v>98.54901960784314</v>
       </c>
       <c r="AG2">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="AH2">
-        <v>8.901960784313729</v>
+        <v>1.450980392156865</v>
       </c>
       <c r="AI2">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="AJ2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AK2">
-        <v>364</v>
+        <v>117</v>
       </c>
       <c r="AL2">
-        <v>19.19642857142857</v>
+        <v>22.95719844357977</v>
       </c>
       <c r="AM2">
-        <v>26.63690476190476</v>
+        <v>31.51750972762646</v>
       </c>
       <c r="AN2">
-        <v>54.16666666666666</v>
+        <v>45.52529182879378</v>
       </c>
       <c r="AO2">
-        <v>487005.88</v>
+        <v>52656.29</v>
       </c>
       <c r="AP2">
-        <v>92306.54000000001</v>
+        <v>10118.19</v>
       </c>
       <c r="AQ2">
-        <v>30577.61</v>
+        <v>3333.83</v>
       </c>
       <c r="AR2">
-        <v>79.85142501837585</v>
+        <v>79.65154456376212</v>
       </c>
       <c r="AS2">
-        <v>15.13494818074006</v>
+        <v>15.30547369914614</v>
       </c>
       <c r="AT2">
-        <v>5.013626800884087</v>
+        <v>5.042981737091752</v>
       </c>
       <c r="AU2">
-        <v>77.1710575509085</v>
+        <v>342.0262709802968</v>
       </c>
       <c r="AV2">
-        <v>116.6083640985293</v>
+        <v>814.1362916006339</v>
       </c>
       <c r="AW2">
-        <v>156.8895800933126</v>
+        <v>1332.513721185511</v>
       </c>
     </row>
   </sheetData>
